--- a/BA-2.xlsx
+++ b/BA-2.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="question 1" sheetId="1" r:id="rId1"/>
+    <sheet name="question2" sheetId="3" r:id="rId2"/>
+    <sheet name="question 3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
   <si>
     <t>Customer Number</t>
   </si>
@@ -136,19 +136,59 @@
   </si>
   <si>
     <t>Actual Interest Percentage for Customer 34 = Interest Amount for Customer 1 / Amount Deposited for Customer 34</t>
+  </si>
+  <si>
+    <t>Find the amount deposited and calculate the total amount in a customers account</t>
+  </si>
+  <si>
+    <t>Amount Deposited = Interest amount / Interest Rate</t>
+  </si>
+  <si>
+    <t>Total amount in account = Amount Deposited + Interest Amount</t>
+  </si>
+  <si>
+    <t>If a customer deposited 50,000 and ended up with the same amount total amount in account as Customer 25, what was his Interest Amount?</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Total Amount in Account</t>
+  </si>
+  <si>
+    <t>Customer Amount Deposited</t>
+  </si>
+  <si>
+    <t>Customer Total Amount in Account</t>
+  </si>
+  <si>
+    <t>Interest Percentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -167,16 +207,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,15 +576,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection sqref="A1:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="103" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,10 +598,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -512,11 +615,11 @@
       <c r="C2">
         <v>1754</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <f>C3/B2</f>
         <v>8.1519297529099449E-2</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -528,8 +631,8 @@
       <c r="C3">
         <v>1996</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D34" si="0">C4/B3</f>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D33" si="0">C4/B3</f>
         <v>4.9209306769862883E-2</v>
       </c>
       <c r="F3" t="s">
@@ -546,7 +649,7 @@
       <c r="C4">
         <v>1030</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>6.2005448177454923E-2</v>
       </c>
@@ -561,7 +664,7 @@
       <c r="C5">
         <v>1434</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>7.1683651249891123E-2</v>
       </c>
@@ -579,7 +682,7 @@
       <c r="C6">
         <v>1646</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>6.1803947513507554E-2</v>
       </c>
@@ -594,7 +697,7 @@
       <c r="C7">
         <v>1121</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>8.4780455595906246E-2</v>
       </c>
@@ -609,7 +712,7 @@
       <c r="C8">
         <v>1284</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>5.8439464775108821E-2</v>
       </c>
@@ -624,7 +727,7 @@
       <c r="C9">
         <v>1450</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>5.208282582216809E-2</v>
       </c>
@@ -639,7 +742,7 @@
       <c r="C10">
         <v>1069</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>8.0458279290964121E-2</v>
       </c>
@@ -654,7 +757,7 @@
       <c r="C11">
         <v>1861</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>6.8924319202405965E-2</v>
       </c>
@@ -669,7 +772,7 @@
       <c r="C12">
         <v>1673</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>0.11511452385640218</v>
       </c>
@@ -684,7 +787,7 @@
       <c r="C13">
         <v>1754</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>7.9618553210698564E-2</v>
       </c>
@@ -699,7 +802,7 @@
       <c r="C14">
         <v>1411</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>9.2950540079590679E-2</v>
       </c>
@@ -714,7 +817,7 @@
       <c r="C15">
         <v>1962</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>7.2739226585380429E-2</v>
       </c>
@@ -729,7 +832,7 @@
       <c r="C16">
         <v>1217</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>9.1230597943545752E-2</v>
       </c>
@@ -744,7 +847,7 @@
       <c r="C17">
         <v>1393</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>9.3760427093760423E-2</v>
       </c>
@@ -759,7 +862,7 @@
       <c r="C18">
         <v>1967</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>6.3427237872978826E-2</v>
       </c>
@@ -774,7 +877,7 @@
       <c r="C19">
         <v>1522</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>0.10399645322693014</v>
       </c>
@@ -789,7 +892,7 @@
       <c r="C20">
         <v>1642</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>9.8527045426414162E-2</v>
       </c>
@@ -804,7 +907,7 @@
       <c r="C21">
         <v>1592</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>7.634772009529614E-2</v>
       </c>
@@ -819,7 +922,7 @@
       <c r="C22">
         <v>1378</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <f t="shared" si="0"/>
         <v>7.168170103092783E-2</v>
       </c>
@@ -834,7 +937,7 @@
       <c r="C23">
         <v>1780</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <f t="shared" si="0"/>
         <v>7.9824320614877847E-2</v>
       </c>
@@ -849,7 +952,7 @@
       <c r="C24">
         <v>1454</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <f t="shared" si="0"/>
         <v>8.2220909627879507E-2</v>
       </c>
@@ -864,7 +967,7 @@
       <c r="C25">
         <v>1392</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <f t="shared" si="0"/>
         <v>9.3655873493975902E-2</v>
       </c>
@@ -879,7 +982,7 @@
       <c r="C26">
         <v>1990</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <f t="shared" si="0"/>
         <v>0.10864959748199261</v>
       </c>
@@ -894,7 +997,7 @@
       <c r="C27">
         <v>1795</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <f t="shared" si="0"/>
         <v>6.913073237508556E-2</v>
       </c>
@@ -909,7 +1012,7 @@
       <c r="C28">
         <v>1212</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <f t="shared" si="0"/>
         <v>6.5817760873160241E-2</v>
       </c>
@@ -924,7 +1027,7 @@
       <c r="C29">
         <v>1592</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <f t="shared" si="0"/>
         <v>0.11144331105639582</v>
       </c>
@@ -939,7 +1042,7 @@
       <c r="C30">
         <v>1901</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <f t="shared" si="0"/>
         <v>5.4266895761741124E-2</v>
       </c>
@@ -954,7 +1057,7 @@
       <c r="C31">
         <v>1137</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <f t="shared" si="0"/>
         <v>5.6966618287373004E-2</v>
       </c>
@@ -969,7 +1072,7 @@
       <c r="C32">
         <v>1413</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <f t="shared" si="0"/>
         <v>7.6208794853087486E-2</v>
       </c>
@@ -984,7 +1087,7 @@
       <c r="C33">
         <v>1149</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <f t="shared" si="0"/>
         <v>0.12830067459042724</v>
       </c>
@@ -999,7 +1102,7 @@
       <c r="C34">
         <v>1997</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <f>C2/B34</f>
         <v>7.4733702599062632E-2</v>
       </c>
@@ -1015,24 +1118,1376 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="52.5" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>5931</v>
+      </c>
+      <c r="D2" s="5">
+        <f>C2/B2</f>
+        <v>136658.98617511519</v>
+      </c>
+      <c r="E2" s="5">
+        <f>C2+D2</f>
+        <v>142589.98617511519</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5821</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D34" si="0">C3/B3</f>
+        <v>74532.650448143409</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E34" si="1">C3+D3</f>
+        <v>80353.650448143409</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4228</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>61098.265895953758</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>65326.265895953758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>5808</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>162689.07563025207</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>168497.07563025207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4990</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>268279.56989247311</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>273269.56989247311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5111</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>57362.514029180697</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>62473.514029180697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4907</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>65954.301075268828</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>70861.301075268828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4642</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>244315.78947368421</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>248957.78947368421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4122</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>76617.100371747205</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>80739.100371747205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>5231</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>77039.76435935199</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>82270.76435935199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4806</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>73150.684931506854</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>77956.684931506854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>8.43E-2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>5477</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>64970.34400948992</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>70447.344009489927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>5434</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>507850.46728971967</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>513284.46728971967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4222</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>183565.21739130435</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>187787.21739130435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1.03E-2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>5467</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>530776.6990291262</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>536243.6990291262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4728</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>177078.65168539324</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>181806.65168539324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4283</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>53806.532663316582</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>58089.532663316582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="8">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>5069</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>60852.340936374552</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>65921.34093637456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>4884</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>50875</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>55759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="8">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>4279</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>42832.832832832835</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>47111.832832832835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="C22" s="9">
+        <v>5430</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>152100.84033613445</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>157530.84033613445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C23" s="9">
+        <v>5409</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>1126875</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>1132284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="8">
+        <v>4.82E-2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>4009</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>83174.273858921166</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>87183.273858921166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2.23E-2</v>
+      </c>
+      <c r="C25" s="9">
+        <v>5071</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>227399.10313901346</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>232470.10313901346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="8">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="C26" s="9">
+        <v>5189</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>58832.199546485259</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>64021.199546485259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="C27" s="9">
+        <v>4974</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>259062.50000000003</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="1"/>
+        <v>264036.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="8">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="C28" s="9">
+        <v>5571</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>128068.96551724139</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
+        <v>133639.96551724139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="8">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="C29" s="9">
+        <v>4377</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>446632.6530612245</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="1"/>
+        <v>451009.6530612245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="8">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="C30" s="9">
+        <v>4909</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>69336.158192090399</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
+        <v>74245.158192090399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="8">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="C31" s="9">
+        <v>5642</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>58105.046343975278</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="1"/>
+        <v>63747.046343975278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2.46E-2</v>
+      </c>
+      <c r="C32" s="9">
+        <v>4619</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>187764.22764227641</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
+        <v>192383.22764227641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="8">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="C33" s="9">
+        <v>5571</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>58580.441640378544</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="1"/>
+        <v>64151.441640378544</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1.41E-2</v>
+      </c>
+      <c r="C34" s="9">
+        <v>5146</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>364964.53900709219</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="1"/>
+        <v>370110.53900709219</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>5931</v>
+      </c>
+      <c r="D2" s="5">
+        <f>C2/B2</f>
+        <v>136658.98617511519</v>
+      </c>
+      <c r="E2" s="5">
+        <f>C2+D2</f>
+        <v>142589.98617511519</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5821</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D34" si="0">C3/B3</f>
+        <v>74532.650448143409</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E34" si="1">C3+D3</f>
+        <v>80353.650448143409</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4228</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>61098.265895953758</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>65326.265895953758</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="27" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>5808</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>162689.07563025207</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>168497.07563025207</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4990</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>268279.56989247311</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>273269.56989247311</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5111</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>57362.514029180697</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>62473.514029180697</v>
+      </c>
+      <c r="G7" s="10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4907</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>65954.301075268828</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>70861.301075268828</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4642</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>244315.78947368421</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>248957.78947368421</v>
+      </c>
+      <c r="G9">
+        <v>64022.786030000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" thickBot="1">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4122</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>76617.100371747205</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>80739.100371747205</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>5231</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>77039.76435935199</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>82270.76435935199</v>
+      </c>
+      <c r="G11" s="10">
+        <v>14023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4806</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>73150.684931506854</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>77956.684931506854</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27" thickBot="1">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>8.43E-2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>5477</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>64970.34400948992</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>70447.344009489927</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>5434</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>507850.46728971967</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>513284.46728971967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4222</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>183565.21739130435</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>187787.21739130435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1.03E-2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>5467</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>530776.6990291262</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>536243.6990291262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4728</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>177078.65168539324</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>181806.65168539324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27" thickBot="1">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4283</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>53806.532663316582</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>58089.532663316582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27" thickBot="1">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="8">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>5069</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>60852.340936374552</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>65921.34093637456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>4884</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>50875</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>55759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="27" thickBot="1">
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="8">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>4279</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>42832.832832832835</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>47111.832832832835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="C22" s="9">
+        <v>5430</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>152100.84033613445</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>157530.84033613445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="27" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C23" s="9">
+        <v>5409</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>1126875</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>1132284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="27" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="8">
+        <v>4.82E-2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>4009</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>83174.273858921166</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>87183.273858921166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="27" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2.23E-2</v>
+      </c>
+      <c r="C25" s="9">
+        <v>5071</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>227399.10313901346</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>232470.10313901346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="27" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="8">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="C26" s="9">
+        <v>5189</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>58832.199546485259</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>64021.199546485259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27" thickBot="1">
+      <c r="A27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="C27" s="9">
+        <v>4974</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>259062.50000000003</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="1"/>
+        <v>264036.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="27" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="8">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="C28" s="9">
+        <v>5571</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>128068.96551724139</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
+        <v>133639.96551724139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="27" thickBot="1">
+      <c r="A29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="8">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="C29" s="9">
+        <v>4377</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>446632.6530612245</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="1"/>
+        <v>451009.6530612245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="27" thickBot="1">
+      <c r="A30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="8">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="C30" s="9">
+        <v>4909</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>69336.158192090399</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
+        <v>74245.158192090399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="27" thickBot="1">
+      <c r="A31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="8">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="C31" s="9">
+        <v>5642</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>58105.046343975278</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="1"/>
+        <v>63747.046343975278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="27" thickBot="1">
+      <c r="A32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2.46E-2</v>
+      </c>
+      <c r="C32" s="9">
+        <v>4619</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>187764.22764227641</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
+        <v>192383.22764227641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27" thickBot="1">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="8">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="C33" s="9">
+        <v>5571</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>58580.441640378544</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="1"/>
+        <v>64151.441640378544</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="27" thickBot="1">
+      <c r="A34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1.41E-2</v>
+      </c>
+      <c r="C34" s="9">
+        <v>5146</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>364964.53900709219</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="1"/>
+        <v>370110.53900709219</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>